--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H2">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I2">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J2">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>890.7560872023845</v>
+        <v>512.8662122754865</v>
       </c>
       <c r="R2">
-        <v>8016.80478482146</v>
+        <v>4615.795910479379</v>
       </c>
       <c r="S2">
-        <v>0.04884083238559997</v>
+        <v>0.02616937420531847</v>
       </c>
       <c r="T2">
-        <v>0.05356752715734525</v>
+        <v>0.02901000762850517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H3">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I3">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J3">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>145.495283657336</v>
+        <v>123.141047810748</v>
       </c>
       <c r="R3">
-        <v>1309.457552916024</v>
+        <v>1108.269430296732</v>
       </c>
       <c r="S3">
-        <v>0.00797761684045469</v>
+        <v>0.00628336217723677</v>
       </c>
       <c r="T3">
-        <v>0.008749670836444364</v>
+        <v>0.006965408620938831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H4">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I4">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J4">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>192.87632425693</v>
+        <v>202.199555691606</v>
       </c>
       <c r="R4">
-        <v>1735.88691831237</v>
+        <v>1819.796001224454</v>
       </c>
       <c r="S4">
-        <v>0.01057555526089043</v>
+        <v>0.01031738045983905</v>
       </c>
       <c r="T4">
-        <v>0.01159903130170197</v>
+        <v>0.01143731154966984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H5">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I5">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J5">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>369.3917273347947</v>
+        <v>317.038167726588</v>
       </c>
       <c r="R5">
-        <v>2216.350364008768</v>
+        <v>1902.229006359528</v>
       </c>
       <c r="S5">
-        <v>0.02025402879485106</v>
+        <v>0.01617710476928246</v>
       </c>
       <c r="T5">
-        <v>0.01480944235277095</v>
+        <v>0.01195539817095651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H6">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I6">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J6">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>225.4486558167527</v>
+        <v>183.31433324677</v>
       </c>
       <c r="R6">
-        <v>2029.037902350774</v>
+        <v>1649.82899922093</v>
       </c>
       <c r="S6">
-        <v>0.01236152092419331</v>
+        <v>0.00935374814934454</v>
       </c>
       <c r="T6">
-        <v>0.01355783829777745</v>
+        <v>0.0103690788720677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>73.305408</v>
       </c>
       <c r="I7">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J7">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>1368.740903427627</v>
+        <v>931.1349035694932</v>
       </c>
       <c r="R7">
-        <v>12318.66813084864</v>
+        <v>8380.214132125438</v>
       </c>
       <c r="S7">
-        <v>0.07504910267139675</v>
+        <v>0.04751184060074975</v>
       </c>
       <c r="T7">
-        <v>0.08231216891933511</v>
+        <v>0.05266915622277096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>73.305408</v>
       </c>
       <c r="I8">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J8">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
         <v>223.568885869824</v>
@@ -948,10 +948,10 @@
         <v>2012.119972828416</v>
       </c>
       <c r="S8">
-        <v>0.01225845171117251</v>
+        <v>0.01140776618727785</v>
       </c>
       <c r="T8">
-        <v>0.01344479430163939</v>
+        <v>0.01264605647504846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>73.305408</v>
       </c>
       <c r="I9">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J9">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>296.37486412512</v>
+        <v>367.103660339328</v>
       </c>
       <c r="R9">
-        <v>2667.37377712608</v>
+        <v>3303.932943053952</v>
       </c>
       <c r="S9">
-        <v>0.01625045876195187</v>
+        <v>0.01873173320764922</v>
       </c>
       <c r="T9">
-        <v>0.01782313790595489</v>
+        <v>0.02076502552126711</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>73.305408</v>
       </c>
       <c r="I10">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J10">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>567.609443095552</v>
+        <v>575.599048383744</v>
       </c>
       <c r="R10">
-        <v>3405.656658573313</v>
+        <v>3453.594290302464</v>
       </c>
       <c r="S10">
-        <v>0.03112245660625489</v>
+        <v>0.02937036312559477</v>
       </c>
       <c r="T10">
-        <v>0.02275627390754564</v>
+        <v>0.0217056383450522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>73.305408</v>
       </c>
       <c r="I11">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J11">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>346.425695285824</v>
+        <v>332.81657072576</v>
       </c>
       <c r="R11">
-        <v>3117.831257572416</v>
+        <v>2995.34913653184</v>
       </c>
       <c r="S11">
-        <v>0.01899478382534546</v>
+        <v>0.01698220934151709</v>
       </c>
       <c r="T11">
-        <v>0.02083305195085274</v>
+        <v>0.01882559432568162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H12">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I12">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J12">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>3085.119559742893</v>
+        <v>2915.681598019755</v>
       </c>
       <c r="R12">
-        <v>27766.07603768604</v>
+        <v>26241.1343821778</v>
       </c>
       <c r="S12">
-        <v>0.1691594472064532</v>
+        <v>0.1487747895569195</v>
       </c>
       <c r="T12">
-        <v>0.1855302794721581</v>
+        <v>0.1649239965049811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H13">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I13">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J13">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>503.9206039796639</v>
+        <v>700.0657841538799</v>
       </c>
       <c r="R13">
-        <v>4535.285435816976</v>
+        <v>6300.59205738492</v>
       </c>
       <c r="S13">
-        <v>0.02763034921481161</v>
+        <v>0.03572136950215359</v>
       </c>
       <c r="T13">
-        <v>0.03030434596703838</v>
+        <v>0.03959885298088335</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H14">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I14">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J14">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>668.0240855218199</v>
+        <v>1149.51913295686</v>
       </c>
       <c r="R14">
-        <v>6012.21676969638</v>
+        <v>10345.67219661174</v>
       </c>
       <c r="S14">
-        <v>0.03662826766975763</v>
+        <v>0.05865505589274934</v>
       </c>
       <c r="T14">
-        <v>0.04017306068077468</v>
+        <v>0.06502194533002005</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H15">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I15">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J15">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>1279.382380407872</v>
+        <v>1802.38496782428</v>
       </c>
       <c r="R15">
-        <v>7676.294282447233</v>
+        <v>10814.30980694568</v>
       </c>
       <c r="S15">
-        <v>0.0701495070270495</v>
+        <v>0.09196801340404645</v>
       </c>
       <c r="T15">
-        <v>0.05129226836373862</v>
+        <v>0.06796730533173211</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H16">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I16">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J16">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>780.8378385181639</v>
+        <v>1042.155274237033</v>
       </c>
       <c r="R16">
-        <v>7027.540546663476</v>
+        <v>9379.397468133302</v>
       </c>
       <c r="S16">
-        <v>0.04281393137730526</v>
+        <v>0.0531767363471894</v>
       </c>
       <c r="T16">
-        <v>0.04695735759906301</v>
+        <v>0.05894896511424617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H17">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I17">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J17">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N17">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O17">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P17">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q17">
-        <v>594.0389842250598</v>
+        <v>463.9374889163066</v>
       </c>
       <c r="R17">
-        <v>3564.233905350359</v>
+        <v>2783.62493349784</v>
       </c>
       <c r="S17">
-        <v>0.03257160840760691</v>
+        <v>0.02367275025090773</v>
       </c>
       <c r="T17">
-        <v>0.02381587198948342</v>
+        <v>0.01749492007918583</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H18">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I18">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J18">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P18">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q18">
-        <v>97.02978374786397</v>
+        <v>111.393082906296</v>
       </c>
       <c r="R18">
-        <v>582.1787024871838</v>
+        <v>668.358497437776</v>
       </c>
       <c r="S18">
-        <v>0.005320216692904516</v>
+        <v>0.005683913661469832</v>
       </c>
       <c r="T18">
-        <v>0.003890062723612245</v>
+        <v>0.004200594108857047</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H19">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I19">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J19">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N19">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O19">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P19">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q19">
-        <v>128.62786725657</v>
+        <v>182.909210788812</v>
       </c>
       <c r="R19">
-        <v>771.7672035394199</v>
+        <v>1097.455264732872</v>
       </c>
       <c r="S19">
-        <v>0.007052763596066189</v>
+        <v>0.009333076479135964</v>
       </c>
       <c r="T19">
-        <v>0.005156875057381977</v>
+        <v>0.006897442222166465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H20">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I20">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J20">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N20">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O20">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P20">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q20">
-        <v>246.344750981472</v>
+        <v>286.791931121976</v>
       </c>
       <c r="R20">
-        <v>985.379003925888</v>
+        <v>1147.167724487904</v>
       </c>
       <c r="S20">
-        <v>0.01350726968315938</v>
+        <v>0.01463376838824685</v>
       </c>
       <c r="T20">
-        <v>0.006584208792637248</v>
+        <v>0.007209882127373508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H21">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I21">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J21">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N21">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O21">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P21">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q21">
-        <v>150.350126617614</v>
+        <v>165.82568594554</v>
       </c>
       <c r="R21">
-        <v>902.1007597056839</v>
+        <v>994.9541156732402</v>
       </c>
       <c r="S21">
-        <v>0.008243811565012856</v>
+        <v>0.008461377108678513</v>
       </c>
       <c r="T21">
-        <v>0.006027751484692315</v>
+        <v>0.006253228488756046</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H22">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I22">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J22">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N22">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O22">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P22">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q22">
-        <v>2968.054372014519</v>
+        <v>2685.295323161818</v>
       </c>
       <c r="R22">
-        <v>26712.48934813067</v>
+        <v>24167.65790845636</v>
       </c>
       <c r="S22">
-        <v>0.1627406741055165</v>
+        <v>0.1370191611021283</v>
       </c>
       <c r="T22">
-        <v>0.1784903134108377</v>
+        <v>0.1518923180064536</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H23">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I23">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J23">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P23">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q23">
-        <v>484.799283407572</v>
+        <v>644.7491994224559</v>
       </c>
       <c r="R23">
-        <v>4363.193550668148</v>
+        <v>5802.742794802104</v>
       </c>
       <c r="S23">
-        <v>0.02658191269389376</v>
+        <v>0.03289880024149958</v>
       </c>
       <c r="T23">
-        <v>0.02915444435677061</v>
+        <v>0.03646989945142082</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H24">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I24">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J24">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N24">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O24">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P24">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q24">
-        <v>642.675841000235</v>
+        <v>1058.688422532332</v>
       </c>
       <c r="R24">
-        <v>5784.082569002116</v>
+        <v>9528.195802790988</v>
       </c>
       <c r="S24">
-        <v>0.03523840418217122</v>
+        <v>0.05402035235108261</v>
       </c>
       <c r="T24">
-        <v>0.03864868964777323</v>
+        <v>0.05988415395431776</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H25">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I25">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J25">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N25">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O25">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P25">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q25">
-        <v>1230.836080778789</v>
+        <v>1659.967236450936</v>
       </c>
       <c r="R25">
-        <v>7385.016484672738</v>
+        <v>9959.803418705616</v>
       </c>
       <c r="S25">
-        <v>0.06748767656954242</v>
+        <v>0.08470104432599844</v>
       </c>
       <c r="T25">
-        <v>0.04934597782013466</v>
+        <v>0.06259678260450952</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H26">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I26">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J26">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N26">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O26">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P26">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q26">
-        <v>751.2088642170304</v>
+        <v>959.8080551106068</v>
       </c>
       <c r="R26">
-        <v>6760.879777953273</v>
+        <v>8638.272495995461</v>
       </c>
       <c r="S26">
-        <v>0.04118935222663803</v>
+        <v>0.04897490916398383</v>
       </c>
       <c r="T26">
-        <v>0.04517555570253591</v>
+        <v>0.05429103796313834</v>
       </c>
     </row>
   </sheetData>
